--- a/Campos (Excel)/Tablas y Campos (PS).xlsx
+++ b/Campos (Excel)/Tablas y Campos (PS).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Quinto Bach. C\Importante\Agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea885963cc172127/Documents/GitHub/Proyecto_practica/Campos (Excel)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED67173-DDAC-4154-9F88-72E4652263BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9ED67173-DDAC-4154-9F88-72E4652263BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE17DE1-46C1-4F50-92DF-05BFA84964B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{657C94B9-C359-475A-A3FF-6AD3DA72B997}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{657C94B9-C359-475A-A3FF-6AD3DA72B997}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Revendedores</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>nom_revend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo reparación </t>
+  </si>
+  <si>
+    <t>IRS recibo +</t>
   </si>
 </sst>
 </file>
@@ -662,29 +668,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C31281-32B6-451D-9E05-D0CCD0861E14}">
-  <dimension ref="A3:S13"/>
+  <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -716,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -748,7 +754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -780,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -812,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -841,7 +847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
@@ -867,7 +873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
@@ -890,7 +896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
@@ -907,7 +913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
@@ -918,7 +924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
@@ -926,9 +932,49 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E13" s="9" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Campos (Excel)/Tablas y Campos (PS).xlsx
+++ b/Campos (Excel)/Tablas y Campos (PS).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea885963cc172127/Documents/GitHub/Proyecto_practica/Campos (Excel)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Proyecto_practica\Campos (Excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9ED67173-DDAC-4154-9F88-72E4652263BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE17DE1-46C1-4F50-92DF-05BFA84964B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEBCC9-4788-4B84-869B-31FD8B6A3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{657C94B9-C359-475A-A3FF-6AD3DA72B997}"/>
   </bookViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C31281-32B6-451D-9E05-D0CCD0861E14}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Campos (Excel)/Tablas y Campos (PS).xlsx
+++ b/Campos (Excel)/Tablas y Campos (PS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Proyecto_practica\Campos (Excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEBCC9-4788-4B84-869B-31FD8B6A3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF526A-20DB-43AB-BC6F-B82C94F9D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{657C94B9-C359-475A-A3FF-6AD3DA72B997}"/>
   </bookViews>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -342,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,6 +360,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +681,7 @@
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +713,7 @@
       <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -735,7 +745,7 @@
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -767,7 +777,7 @@
       <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -799,7 +809,7 @@
       <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -828,7 +838,7 @@
       <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -854,7 +864,7 @@
       <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -880,7 +890,7 @@
       <c r="G9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -938,42 +948,42 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="13" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Campos (Excel)/Tablas y Campos (PS).xlsx
+++ b/Campos (Excel)/Tablas y Campos (PS).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Proyecto_practica\Campos (Excel)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea885963cc172127/Documents/GitHub/Proyecto_practica/Campos (Excel)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF526A-20DB-43AB-BC6F-B82C94F9D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F6AF526A-20DB-43AB-BC6F-B82C94F9D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBEE3BF-A18F-4B70-9C8B-C990D49B2051}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{657C94B9-C359-475A-A3FF-6AD3DA72B997}"/>
+    <workbookView minimized="1" xWindow="12312" yWindow="564" windowWidth="10332" windowHeight="7968" xr2:uid="{657C94B9-C359-475A-A3FF-6AD3DA72B997}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,6 +314,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -348,22 +354,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C31281-32B6-451D-9E05-D0CCD0861E14}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,289 +710,293 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="K11" s="15"/>
+      <c r="S11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="K12" s="15"/>
+      <c r="S12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
